--- a/jupyter_notebook_files/bace_dataset_DTI_prediction.xlsx
+++ b/jupyter_notebook_files/bace_dataset_DTI_prediction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanlixu/Desktop/pingan/AD_project/AD_info_integration/important/ppts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522817D-7D16-964D-A3FE-652A4E2B6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD2F7B-1786-3749-BA6A-E24CBE78AE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="24580" windowHeight="14660" xr2:uid="{4B1BADC8-E2B6-4247-A018-DBAC2688F2DE}"/>
+    <workbookView xWindow="-540" yWindow="1620" windowWidth="24580" windowHeight="14660" activeTab="1" xr2:uid="{4B1BADC8-E2B6-4247-A018-DBAC2688F2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="model_summary" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,7 +364,15 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -372,9 +380,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,10 +404,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1E1896-1E4F-7C4C-9364-135AA0B1D389}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +823,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G4" t="s">
@@ -838,7 +846,7 @@
       <c r="E5">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G5" t="s">
@@ -925,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCCBAAB-B313-644B-8BDF-3ABCFE56FB2C}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1079,7 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D4" t="s">
@@ -1112,7 +1120,7 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
@@ -1232,7 +1240,7 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D8" t="s">
@@ -1270,7 +1278,7 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D9" t="s">
@@ -1738,7 +1746,7 @@
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D23" t="s">
@@ -1773,7 +1781,7 @@
       <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D24" t="s">
@@ -1817,7 +1825,7 @@
       <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D25" t="s">
@@ -1861,7 +1869,7 @@
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D26" t="s">
@@ -2018,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2044,25 +2052,25 @@
         <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30">
-        <v>0.94</v>
+        <v>63</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.92</v>
       </c>
       <c r="L30">
-        <v>0.7</v>
-      </c>
-      <c r="M30">
-        <v>0.97</v>
+        <v>0.74</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.92</v>
       </c>
       <c r="N30">
-        <v>0.85</v>
-      </c>
-      <c r="O30">
-        <v>0.97</v>
+        <v>0.73</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.92</v>
       </c>
       <c r="P30">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2090,23 +2098,23 @@
       <c r="H31" t="s">
         <v>65</v>
       </c>
-      <c r="K31">
-        <v>0.94</v>
+      <c r="K31" s="3">
+        <v>0.91</v>
       </c>
       <c r="L31">
-        <v>0.72</v>
-      </c>
-      <c r="M31">
-        <v>0.97</v>
+        <v>0.71</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.92</v>
       </c>
       <c r="N31">
-        <v>0.82</v>
-      </c>
-      <c r="O31">
-        <v>0.97</v>
+        <v>0.69</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.92</v>
       </c>
       <c r="P31">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2132,25 +2140,25 @@
         <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.94</v>
+        <v>66</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.91</v>
       </c>
       <c r="L32">
-        <v>0.69</v>
-      </c>
-      <c r="M32">
-        <v>0.97</v>
+        <v>0.72</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.92</v>
       </c>
       <c r="N32">
-        <v>0.85</v>
-      </c>
-      <c r="O32">
-        <v>0.97</v>
+        <v>0.7</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.92</v>
       </c>
       <c r="P32">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2176,25 +2184,25 @@
         <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33">
-        <v>0.94</v>
+        <v>67</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.91</v>
       </c>
       <c r="L33">
         <v>0.69</v>
       </c>
-      <c r="M33">
-        <v>0.97</v>
+      <c r="M33" s="3">
+        <v>0.92</v>
       </c>
       <c r="N33">
-        <v>0.86</v>
-      </c>
-      <c r="O33">
-        <v>0.97</v>
+        <v>0.68</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.92</v>
       </c>
       <c r="P33">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2220,25 +2228,25 @@
         <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34">
-        <v>0.94</v>
+        <v>74</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.91</v>
       </c>
       <c r="L34">
         <v>0.72</v>
       </c>
-      <c r="M34">
-        <v>0.97</v>
+      <c r="M34" s="3">
+        <v>0.92</v>
       </c>
       <c r="N34">
-        <v>0.82</v>
-      </c>
-      <c r="O34">
-        <v>0.97</v>
+        <v>0.7</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.92</v>
       </c>
       <c r="P34">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2264,62 +2272,86 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35">
+        <v>73</v>
+      </c>
+      <c r="K35" s="3">
         <v>0.91</v>
       </c>
       <c r="L35">
-        <v>0.68</v>
-      </c>
-      <c r="M35">
-        <v>0.97</v>
+        <v>0.71</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.92</v>
       </c>
       <c r="N35">
-        <v>0.87</v>
-      </c>
-      <c r="O35">
-        <v>0.97</v>
+        <v>0.69</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.92</v>
       </c>
       <c r="P35">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="J37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="J42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
